--- a/example/config.xlsx
+++ b/example/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/16 Tools/beamforming/beamformingAnalysis/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/17 LTT-2022May/04 Measurements/Noise/01 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785634F3-B4E4-1944-B889-A04DE3ABDF7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D47A8C-93E0-C14B-A8EC-88C90D7450C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{25EE88A9-F65C-8846-9527-355D3C876ACA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{25EE88A9-F65C-8846-9527-355D3C876ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -514,33 +514,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -861,7 +864,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +872,10 @@
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
@@ -879,13 +885,13 @@
       <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -912,15 +918,19 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="10">
+        <v>800</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6000</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="17">
@@ -944,7 +954,7 @@
       <c r="J6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="4" t="s">
         <v>2</v>
       </c>
@@ -960,7 +970,7 @@
       <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -979,7 +989,7 @@
       <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1011,7 @@
       <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1022,7 +1032,7 @@
       <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1034,17 +1044,17 @@
       <c r="C11" s="10">
         <v>0.1</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1055,13 +1065,13 @@
       <c r="C12" s="10">
         <v>0.11</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="14"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="24"/>
       <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1073,13 +1083,13 @@
       <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="15"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="24"/>
       <c r="J13" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -1090,31 +1100,31 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="15"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>-0.15</v>
+      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="15"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="21"/>
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="16"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
@@ -1138,7 +1148,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="H11:H16"/>

--- a/example/config.xlsx
+++ b/example/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/17 LTT-2022May/04 Measurements/Noise/01 Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/16 Tools/beamforming/beamformingAnalysis/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D47A8C-93E0-C14B-A8EC-88C90D7450C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98D15C-777D-0B43-B998-808216A4A114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{25EE88A9-F65C-8846-9527-355D3C876ACA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Beamforming</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>Inspect beamforming on sample</t>
-  </si>
-  <si>
     <t>Batch process raw data</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>_r</t>
+  </si>
+  <si>
+    <t>Inspect processed sample</t>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +886,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1087,13 +1087,13 @@
       <c r="F13" s="15"/>
       <c r="H13" s="24"/>
       <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -1176,12 +1176,6 @@
           </x14:formula1>
           <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3152604-67B2-BA41-B0DC-4BA5011CFA72}">
-          <x14:formula1>
-            <xm:f>helpers!$J$3:$J$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5598063D-5220-5A4B-A60F-D78B81F2371D}">
           <x14:formula1>
             <xm:f>helpers!$F$3:$F$5</xm:f>
@@ -1194,6 +1188,12 @@
           </x14:formula1>
           <xm:sqref>K11 K7</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E86702A2-2116-4048-BA82-3314198068CE}">
+          <x14:formula1>
+            <xm:f>helpers!$J$3:$J$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:G2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1205,7 +1205,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1253,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -1290,6 +1290,9 @@
       </c>
       <c r="F6" t="s">
         <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/example/config.xlsx
+++ b/example/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/16 Tools/beamforming/beamformingAnalysis/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/17 LTT-2022May/04 Measurements/Noise/01 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98D15C-777D-0B43-B998-808216A4A114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C272CDF-F979-8041-8C7F-ECF004987F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{25EE88A9-F65C-8846-9527-355D3C876ACA}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +886,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -922,7 +922,7 @@
         <v>800</v>
       </c>
       <c r="G5" s="10">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>2</v>

--- a/example/config.xlsx
+++ b/example/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/17 LTT-2022May/04 Measurements/Noise/01 Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michiel/MuteSkin/06 WPs/02 WP02/16 Tools/beamforming/beamformingAnalysis/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C272CDF-F979-8041-8C7F-ECF004987F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595AA0D-B0A6-5D4B-AB6B-4BD1AFCFE5A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{25EE88A9-F65C-8846-9527-355D3C876ACA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Beamforming</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Inspect processed sample</t>
+  </si>
+  <si>
+    <t>Adjust integration window</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +889,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1190,7 +1193,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E86702A2-2116-4048-BA82-3314198068CE}">
           <x14:formula1>
-            <xm:f>helpers!$J$3:$J$6</xm:f>
+            <xm:f>helpers!$J$3:$J$7</xm:f>
           </x14:formula1>
           <xm:sqref>C2:G2</xm:sqref>
         </x14:dataValidation>
@@ -1202,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E365-C22B-5D45-AAE0-A74F40AA41A5}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,6 +1295,11 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
         <v>47</v>
       </c>
     </row>
